--- a/biology/Botanique/Nymphaea_ondinea/Nymphaea_ondinea.xlsx
+++ b/biology/Botanique/Nymphaea_ondinea/Nymphaea_ondinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nymphaea ondinea est une espèce de plantes à fleurs aquatiques de la famille du Nénuphar (les Nymphaeaceae). Elle est présente dans le nord-ouest de l'Australie. Auparavant classée dans un genre à part sous le nom de Ondinea purpurea, des études moléculaires ont montré qu'il s'agissait d'une espèce aberrante de Nymphaea[2]. On la trouve dans les mares éphémères et les rivières qui s'assèchent durant une partie significative de l'année. Le rhizome cormoïde survit à la saison sèche dans la boue séchant. A noter : une floraison plus discrète que les autres espèces du même genre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nymphaea ondinea est une espèce de plantes à fleurs aquatiques de la famille du Nénuphar (les Nymphaeaceae). Elle est présente dans le nord-ouest de l'Australie. Auparavant classée dans un genre à part sous le nom de Ondinea purpurea, des études moléculaires ont montré qu'il s'agissait d'une espèce aberrante de Nymphaea. On la trouve dans les mares éphémères et les rivières qui s'assèchent durant une partie significative de l'année. Le rhizome cormoïde survit à la saison sèche dans la boue séchant. A noter : une floraison plus discrète que les autres espèces du même genre.
 </t>
         </is>
       </c>
